--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3168"/>
+  <dimension ref="A1:G3116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83451,10 +83451,8 @@
       <c r="D3060" t="inlineStr"/>
       <c r="E3060" t="inlineStr"/>
       <c r="F3060" t="inlineStr"/>
-      <c r="G3060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3060" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3061">
@@ -83488,10 +83486,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G3061" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G3061" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3062">
@@ -83525,10 +83521,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G3062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3062" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3063">
@@ -83562,10 +83556,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G3063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3063" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3064">
@@ -83599,10 +83591,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G3064" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3064" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3065">
@@ -83636,10 +83626,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G3065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3066">
@@ -83673,10 +83661,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G3066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3067">
@@ -83710,10 +83696,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G3067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3068">
@@ -83747,10 +83731,8 @@
           <t>1970.0K</t>
         </is>
       </c>
-      <c r="G3068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3068" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3069">
@@ -83780,10 +83762,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G3069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3070">
@@ -83813,10 +83793,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G3070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3071">
@@ -83846,10 +83824,8 @@
           <t>237.0K</t>
         </is>
       </c>
-      <c r="G3071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3072">
@@ -83875,10 +83851,8 @@
       </c>
       <c r="E3072" t="inlineStr"/>
       <c r="F3072" t="inlineStr"/>
-      <c r="G3072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3073">
@@ -83904,10 +83878,8 @@
       </c>
       <c r="E3073" t="inlineStr"/>
       <c r="F3073" t="inlineStr"/>
-      <c r="G3073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3074">
@@ -83933,10 +83905,8 @@
       </c>
       <c r="E3074" t="inlineStr"/>
       <c r="F3074" t="inlineStr"/>
-      <c r="G3074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3075">
@@ -83962,10 +83932,8 @@
       </c>
       <c r="E3075" t="inlineStr"/>
       <c r="F3075" t="inlineStr"/>
-      <c r="G3075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3076">
@@ -83991,10 +83959,8 @@
       </c>
       <c r="E3076" t="inlineStr"/>
       <c r="F3076" t="inlineStr"/>
-      <c r="G3076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3077">
@@ -84024,10 +83990,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G3077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3078">
@@ -84057,10 +84021,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="G3078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3079">
@@ -84094,10 +84056,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G3079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3079" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3080">
@@ -84115,10 +84075,8 @@
       <c r="D3080" t="inlineStr"/>
       <c r="E3080" t="inlineStr"/>
       <c r="F3080" t="inlineStr"/>
-      <c r="G3080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3080" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3081">
@@ -84152,10 +84110,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G3081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3082">
@@ -84189,10 +84145,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G3082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3082" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3083">
@@ -84222,10 +84176,8 @@
         </is>
       </c>
       <c r="F3083" t="inlineStr"/>
-      <c r="G3083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3084">
@@ -84251,10 +84203,8 @@
       </c>
       <c r="E3084" t="inlineStr"/>
       <c r="F3084" t="inlineStr"/>
-      <c r="G3084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3085">
@@ -84280,10 +84230,8 @@
       </c>
       <c r="E3085" t="inlineStr"/>
       <c r="F3085" t="inlineStr"/>
-      <c r="G3085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3086">
@@ -84309,10 +84257,8 @@
       </c>
       <c r="E3086" t="inlineStr"/>
       <c r="F3086" t="inlineStr"/>
-      <c r="G3086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3087">
@@ -84338,10 +84284,8 @@
       </c>
       <c r="E3087" t="inlineStr"/>
       <c r="F3087" t="inlineStr"/>
-      <c r="G3087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G3087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3088">
@@ -84359,77 +84303,91 @@
       <c r="D3088" t="inlineStr"/>
       <c r="E3088" t="inlineStr"/>
       <c r="F3088" t="inlineStr"/>
-      <c r="G3088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G3088" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3089">
       <c r="A3089" t="inlineStr">
         <is>
-          <t>Friday July 18 2025</t>
-        </is>
-      </c>
-      <c r="B3089" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3089" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJUL/19</t>
+        </is>
+      </c>
       <c r="C3089" t="inlineStr"/>
-      <c r="D3089" t="inlineStr"/>
+      <c r="D3089" t="inlineStr">
+        <is>
+          <t>221K</t>
+        </is>
+      </c>
       <c r="E3089" t="inlineStr"/>
-      <c r="F3089" t="inlineStr"/>
-      <c r="G3089" t="inlineStr"/>
+      <c r="F3089" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
+      <c r="G3089" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3090">
       <c r="A3090" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3090" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3090" t="inlineStr">
-        <is>
-          <t>$259.4B</t>
-        </is>
-      </c>
+          <t>Continuing Jobless ClaimsJUL/12</t>
+        </is>
+      </c>
+      <c r="C3090" t="inlineStr"/>
       <c r="D3090" t="inlineStr">
         <is>
-          <t>$-8.2B</t>
+          <t>1956K</t>
         </is>
       </c>
       <c r="E3090" t="inlineStr"/>
-      <c r="F3090" t="inlineStr"/>
+      <c r="F3090" t="inlineStr">
+        <is>
+          <t>1952.0K</t>
+        </is>
+      </c>
       <c r="G3090" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3091">
       <c r="A3091" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3091" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentMAY</t>
-        </is>
-      </c>
-      <c r="C3091" t="inlineStr">
-        <is>
-          <t>$146.3B</t>
-        </is>
-      </c>
+          <t>Jobless Claims 4-week AverageJUL/19</t>
+        </is>
+      </c>
+      <c r="C3091" t="inlineStr"/>
       <c r="D3091" t="inlineStr">
         <is>
-          <t>$-40.8B</t>
+          <t>229.5K</t>
         </is>
       </c>
       <c r="E3091" t="inlineStr"/>
-      <c r="F3091" t="inlineStr"/>
+      <c r="F3091" t="inlineStr">
+        <is>
+          <t>231.0K</t>
+        </is>
+      </c>
       <c r="G3091" t="inlineStr">
         <is>
           <t>3</t>
@@ -84439,76 +84397,84 @@
     <row r="3092">
       <c r="A3092" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B3092" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAY</t>
-        </is>
-      </c>
-      <c r="C3092" t="inlineStr">
-        <is>
-          <t>$311.1B</t>
-        </is>
-      </c>
+          <t>S&amp;P Global Composite PMI FlashJUL</t>
+        </is>
+      </c>
+      <c r="C3092" t="inlineStr"/>
       <c r="D3092" t="inlineStr">
         <is>
-          <t>$-14.6B</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E3092" t="inlineStr"/>
-      <c r="F3092" t="inlineStr"/>
+      <c r="F3092" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="G3092" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3093">
       <c r="A3093" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B3093" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/16</t>
-        </is>
-      </c>
-      <c r="C3093" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
+          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
+        </is>
+      </c>
+      <c r="C3093" t="inlineStr"/>
       <c r="D3093" t="inlineStr">
         <is>
-          <t>$6.66T</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E3093" t="inlineStr"/>
-      <c r="F3093" t="inlineStr"/>
+      <c r="F3093" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="G3093" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3094">
       <c r="A3094" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B3094" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>S&amp;P Global Services PMI FlashJUL</t>
         </is>
       </c>
       <c r="C3094" t="inlineStr"/>
-      <c r="D3094" t="inlineStr"/>
+      <c r="D3094" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E3094" t="inlineStr"/>
-      <c r="F3094" t="inlineStr"/>
+      <c r="F3094" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G3094" t="inlineStr">
         <is>
           <t>2</t>
@@ -84518,183 +84484,167 @@
     <row r="3095">
       <c r="A3095" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3095" t="inlineStr">
         <is>
-          <t>Building Permits PrelJUN</t>
+          <t>New Home SalesJUN</t>
         </is>
       </c>
       <c r="C3095" t="inlineStr"/>
       <c r="D3095" t="inlineStr">
         <is>
-          <t>1.394M</t>
+          <t>0.623M</t>
         </is>
       </c>
       <c r="E3095" t="inlineStr">
         <is>
-          <t>1.39M</t>
+          <t>0.65M</t>
         </is>
       </c>
       <c r="F3095" t="inlineStr">
         <is>
-          <t>1.37M</t>
+          <t>0.69M</t>
         </is>
       </c>
       <c r="G3095" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3096">
       <c r="A3096" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B3096" t="inlineStr">
         <is>
-          <t>Housing StartsJUN</t>
+          <t>New Home Sales MoMJUN</t>
         </is>
       </c>
       <c r="C3096" t="inlineStr"/>
       <c r="D3096" t="inlineStr">
         <is>
-          <t>1.256M</t>
-        </is>
-      </c>
-      <c r="E3096" t="inlineStr">
-        <is>
-          <t>1.30M</t>
-        </is>
-      </c>
+          <t>-13.7%</t>
+        </is>
+      </c>
+      <c r="E3096" t="inlineStr"/>
       <c r="F3096" t="inlineStr">
         <is>
-          <t>1.29M</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G3096" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3097">
       <c r="A3097" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B3097" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJUN</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
         </is>
       </c>
       <c r="C3097" t="inlineStr"/>
       <c r="D3097" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>46Bcf</t>
         </is>
       </c>
       <c r="E3097" t="inlineStr"/>
-      <c r="F3097" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="F3097" t="inlineStr"/>
       <c r="G3097" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3098">
       <c r="A3098" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B3098" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJUN</t>
+          <t>Kansas Fed Composite IndexJUL</t>
         </is>
       </c>
       <c r="C3098" t="inlineStr"/>
       <c r="D3098" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E3098" t="inlineStr"/>
       <c r="F3098" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3098" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3099">
       <c r="A3099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B3099" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJUL</t>
+          <t>Kansas Fed Manufacturing IndexJUL</t>
         </is>
       </c>
       <c r="C3099" t="inlineStr"/>
       <c r="D3099" t="inlineStr">
         <is>
-          <t>60.7</t>
-        </is>
-      </c>
-      <c r="E3099" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E3099" t="inlineStr"/>
       <c r="F3099" t="inlineStr">
         <is>
-          <t>60.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G3099" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3100">
       <c r="A3100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3100" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3100" t="inlineStr"/>
       <c r="D3100" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E3100" t="inlineStr"/>
-      <c r="F3100" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="F3100" t="inlineStr"/>
       <c r="G3100" t="inlineStr">
         <is>
           <t>3</t>
@@ -84704,30 +84654,22 @@
     <row r="3101">
       <c r="A3101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B3101" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJUL</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C3101" t="inlineStr"/>
       <c r="D3101" t="inlineStr">
         <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="E3101" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="F3101" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>4.270%</t>
+        </is>
+      </c>
+      <c r="E3101" t="inlineStr"/>
+      <c r="F3101" t="inlineStr"/>
       <c r="G3101" t="inlineStr">
         <is>
           <t>3</t>
@@ -84737,30 +84679,22 @@
     <row r="3102">
       <c r="A3102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3102" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJUL</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C3102" t="inlineStr"/>
       <c r="D3102" t="inlineStr">
         <is>
-          <t>64.8</t>
-        </is>
-      </c>
-      <c r="E3102" t="inlineStr">
-        <is>
-          <t>63.9</t>
-        </is>
-      </c>
-      <c r="F3102" t="inlineStr">
-        <is>
-          <t>64.6</t>
-        </is>
-      </c>
+          <t>2.220%</t>
+        </is>
+      </c>
+      <c r="E3102" t="inlineStr"/>
+      <c r="F3102" t="inlineStr"/>
       <c r="G3102" t="inlineStr">
         <is>
           <t>3</t>
@@ -84770,26 +84704,22 @@
     <row r="3103">
       <c r="A3103" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3103" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJUL</t>
+          <t>15-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C3103" t="inlineStr"/>
       <c r="D3103" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E3103" t="inlineStr"/>
-      <c r="F3103" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="F3103" t="inlineStr"/>
       <c r="G3103" t="inlineStr">
         <is>
           <t>3</t>
@@ -84799,18 +84729,18 @@
     <row r="3104">
       <c r="A3104" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B3104" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/18</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C3104" t="inlineStr"/>
       <c r="D3104" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="E3104" t="inlineStr"/>
@@ -84822,22 +84752,14 @@
       </c>
     </row>
     <row r="3105">
-      <c r="A3105" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A3105" t="inlineStr"/>
       <c r="B3105" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/18</t>
+          <t>Building Permits FinalJUN</t>
         </is>
       </c>
       <c r="C3105" t="inlineStr"/>
-      <c r="D3105" t="inlineStr">
-        <is>
-          <t>537</t>
-        </is>
-      </c>
+      <c r="D3105" t="inlineStr"/>
       <c r="E3105" t="inlineStr"/>
       <c r="F3105" t="inlineStr"/>
       <c r="G3105" t="inlineStr">
@@ -84847,22 +84769,26 @@
       </c>
     </row>
     <row r="3106">
-      <c r="A3106" t="inlineStr">
-        <is>
-          <t>Sunday July 20 2025</t>
-        </is>
-      </c>
-      <c r="B3106" t="inlineStr"/>
+      <c r="A3106" t="inlineStr"/>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalJUN</t>
+        </is>
+      </c>
       <c r="C3106" t="inlineStr"/>
       <c r="D3106" t="inlineStr"/>
       <c r="E3106" t="inlineStr"/>
       <c r="F3106" t="inlineStr"/>
-      <c r="G3106" t="inlineStr"/>
+      <c r="G3106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3107">
       <c r="A3107" t="inlineStr">
         <is>
-          <t>Monday July 21 2025</t>
+          <t>Friday July 25 2025</t>
         </is>
       </c>
       <c r="B3107" t="inlineStr"/>
@@ -84875,30 +84801,22 @@
     <row r="3108">
       <c r="A3108" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B3108" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJUN</t>
+          <t>Fed Balance SheetJUL/23</t>
         </is>
       </c>
       <c r="C3108" t="inlineStr"/>
       <c r="D3108" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E3108" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F3108" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>$6.66T</t>
+        </is>
+      </c>
+      <c r="E3108" t="inlineStr"/>
+      <c r="F3108" t="inlineStr"/>
       <c r="G3108" t="inlineStr">
         <is>
           <t>3</t>
@@ -84908,65 +84826,97 @@
     <row r="3109">
       <c r="A3109" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3109" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders MoMJUN</t>
         </is>
       </c>
       <c r="C3109" t="inlineStr"/>
       <c r="D3109" t="inlineStr">
         <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="E3109" t="inlineStr"/>
-      <c r="F3109" t="inlineStr"/>
+          <t>16.4%</t>
+        </is>
+      </c>
+      <c r="E3109" t="inlineStr">
+        <is>
+          <t>-11%</t>
+        </is>
+      </c>
+      <c r="F3109" t="inlineStr">
+        <is>
+          <t>-9%</t>
+        </is>
+      </c>
       <c r="G3109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3110">
       <c r="A3110" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B3110" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Durable Goods Orders Ex Transp MoMJUN</t>
         </is>
       </c>
       <c r="C3110" t="inlineStr"/>
       <c r="D3110" t="inlineStr">
         <is>
-          <t>4.125%</t>
-        </is>
-      </c>
-      <c r="E3110" t="inlineStr"/>
-      <c r="F3110" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E3110" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F3110" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G3110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3111">
       <c r="A3111" t="inlineStr">
         <is>
-          <t>Tuesday July 22 2025</t>
-        </is>
-      </c>
-      <c r="B3111" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>Durable Goods Orders ex Defense MoMJUN</t>
+        </is>
+      </c>
       <c r="C3111" t="inlineStr"/>
-      <c r="D3111" t="inlineStr"/>
+      <c r="D3111" t="inlineStr">
+        <is>
+          <t>15.5%</t>
+        </is>
+      </c>
       <c r="E3111" t="inlineStr"/>
-      <c r="F3111" t="inlineStr"/>
-      <c r="G3111" t="inlineStr"/>
+      <c r="F3111" t="inlineStr">
+        <is>
+          <t>-6%</t>
+        </is>
+      </c>
+      <c r="G3111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3112">
       <c r="A3112" t="inlineStr">
@@ -84976,36 +84926,40 @@
       </c>
       <c r="B3112" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Non Defense Goods Orders Ex AirJUN</t>
         </is>
       </c>
       <c r="C3112" t="inlineStr"/>
-      <c r="D3112" t="inlineStr"/>
+      <c r="D3112" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="E3112" t="inlineStr"/>
-      <c r="F3112" t="inlineStr"/>
+      <c r="F3112" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G3112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3113">
       <c r="A3113" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3113" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/19</t>
+          <t>Baker Hughes Oil Rig CountJUL/25</t>
         </is>
       </c>
       <c r="C3113" t="inlineStr"/>
-      <c r="D3113" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="D3113" t="inlineStr"/>
       <c r="E3113" t="inlineStr"/>
       <c r="F3113" t="inlineStr"/>
       <c r="G3113" t="inlineStr">
@@ -85017,26 +84971,18 @@
     <row r="3114">
       <c r="A3114" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3114" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexJUL</t>
+          <t>Baker Hughes Total Rigs CountJUL/25</t>
         </is>
       </c>
       <c r="C3114" t="inlineStr"/>
-      <c r="D3114" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="D3114" t="inlineStr"/>
       <c r="E3114" t="inlineStr"/>
-      <c r="F3114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F3114" t="inlineStr"/>
       <c r="G3114" t="inlineStr">
         <is>
           <t>3</t>
@@ -85046,1356 +84992,28 @@
     <row r="3115">
       <c r="A3115" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3115" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJUL</t>
-        </is>
-      </c>
+          <t>Sunday July 27 2025</t>
+        </is>
+      </c>
+      <c r="B3115" t="inlineStr"/>
       <c r="C3115" t="inlineStr"/>
-      <c r="D3115" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D3115" t="inlineStr"/>
       <c r="E3115" t="inlineStr"/>
-      <c r="F3115" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G3115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F3115" t="inlineStr"/>
+      <c r="G3115" t="inlineStr"/>
     </row>
     <row r="3116">
       <c r="A3116" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3116" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJUL</t>
-        </is>
-      </c>
+          <t>Monday July 28 2025</t>
+        </is>
+      </c>
+      <c r="B3116" t="inlineStr"/>
       <c r="C3116" t="inlineStr"/>
-      <c r="D3116" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="D3116" t="inlineStr"/>
       <c r="E3116" t="inlineStr"/>
-      <c r="F3116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3117">
-      <c r="A3117" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3117" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
-      <c r="C3117" t="inlineStr"/>
-      <c r="D3117" t="inlineStr"/>
-      <c r="E3117" t="inlineStr"/>
-      <c r="F3117" t="inlineStr"/>
-      <c r="G3117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3118">
-      <c r="A3118" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3118" t="inlineStr">
-        <is>
-          <t>Money SupplyJUN</t>
-        </is>
-      </c>
-      <c r="C3118" t="inlineStr"/>
-      <c r="D3118" t="inlineStr">
-        <is>
-          <t>$21.94T</t>
-        </is>
-      </c>
-      <c r="E3118" t="inlineStr"/>
-      <c r="F3118" t="inlineStr"/>
-      <c r="G3118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3119">
-      <c r="A3119" t="inlineStr">
-        <is>
-          <t>Wednesday July 23 2025</t>
-        </is>
-      </c>
-      <c r="B3119" t="inlineStr"/>
-      <c r="C3119" t="inlineStr"/>
-      <c r="D3119" t="inlineStr"/>
-      <c r="E3119" t="inlineStr"/>
-      <c r="F3119" t="inlineStr"/>
-      <c r="G3119" t="inlineStr"/>
-    </row>
-    <row r="3120">
-      <c r="A3120" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3120" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3120" t="inlineStr"/>
-      <c r="D3120" t="inlineStr">
-        <is>
-          <t>19.1M</t>
-        </is>
-      </c>
-      <c r="E3120" t="inlineStr"/>
-      <c r="F3120" t="inlineStr"/>
-      <c r="G3120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3121">
-      <c r="A3121" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3121" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJUL/18</t>
-        </is>
-      </c>
-      <c r="C3121" t="inlineStr"/>
-      <c r="D3121" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
-      <c r="E3121" t="inlineStr"/>
-      <c r="F3121" t="inlineStr"/>
-      <c r="G3121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3122">
-      <c r="A3122" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3122" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJUL/18</t>
-        </is>
-      </c>
-      <c r="C3122" t="inlineStr"/>
-      <c r="D3122" t="inlineStr">
-        <is>
-          <t>-10%</t>
-        </is>
-      </c>
-      <c r="E3122" t="inlineStr"/>
-      <c r="F3122" t="inlineStr"/>
-      <c r="G3122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3123">
-      <c r="A3123" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3123" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C3123" t="inlineStr"/>
-      <c r="D3123" t="inlineStr">
-        <is>
-          <t>253.5</t>
-        </is>
-      </c>
-      <c r="E3123" t="inlineStr"/>
-      <c r="F3123" t="inlineStr"/>
-      <c r="G3123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3124">
-      <c r="A3124" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3124" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C3124" t="inlineStr"/>
-      <c r="D3124" t="inlineStr">
-        <is>
-          <t>767.6</t>
-        </is>
-      </c>
-      <c r="E3124" t="inlineStr"/>
-      <c r="F3124" t="inlineStr"/>
-      <c r="G3124" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3125">
-      <c r="A3125" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B3125" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJUL/18</t>
-        </is>
-      </c>
-      <c r="C3125" t="inlineStr"/>
-      <c r="D3125" t="inlineStr">
-        <is>
-          <t>159.6</t>
-        </is>
-      </c>
-      <c r="E3125" t="inlineStr"/>
-      <c r="F3125" t="inlineStr"/>
-      <c r="G3125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3126">
-      <c r="A3126" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3126" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C3126" t="inlineStr"/>
-      <c r="D3126" t="inlineStr">
-        <is>
-          <t>4.03M</t>
-        </is>
-      </c>
-      <c r="E3126" t="inlineStr">
-        <is>
-          <t>4M</t>
-        </is>
-      </c>
-      <c r="F3126" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G3126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3127">
-      <c r="A3127" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3127" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3127" t="inlineStr"/>
-      <c r="D3127" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E3127" t="inlineStr"/>
-      <c r="F3127" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G3127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3128">
-      <c r="A3128" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3128" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3128" t="inlineStr"/>
-      <c r="D3128" t="inlineStr">
-        <is>
-          <t>-3.859M</t>
-        </is>
-      </c>
-      <c r="E3128" t="inlineStr"/>
-      <c r="F3128" t="inlineStr"/>
-      <c r="G3128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3129">
-      <c r="A3129" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3129" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3129" t="inlineStr"/>
-      <c r="D3129" t="inlineStr">
-        <is>
-          <t>3.399M</t>
-        </is>
-      </c>
-      <c r="E3129" t="inlineStr"/>
-      <c r="F3129" t="inlineStr"/>
-      <c r="G3129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3130">
-      <c r="A3130" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3130" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3130" t="inlineStr"/>
-      <c r="D3130" t="inlineStr">
-        <is>
-          <t>-0.395M</t>
-        </is>
-      </c>
-      <c r="E3130" t="inlineStr"/>
-      <c r="F3130" t="inlineStr"/>
-      <c r="G3130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3131">
-      <c r="A3131" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3131" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3131" t="inlineStr"/>
-      <c r="D3131" t="inlineStr">
-        <is>
-          <t>0.213M</t>
-        </is>
-      </c>
-      <c r="E3131" t="inlineStr"/>
-      <c r="F3131" t="inlineStr"/>
-      <c r="G3131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3132">
-      <c r="A3132" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3132" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3132" t="inlineStr"/>
-      <c r="D3132" t="inlineStr">
-        <is>
-          <t>-0.109M</t>
-        </is>
-      </c>
-      <c r="E3132" t="inlineStr"/>
-      <c r="F3132" t="inlineStr"/>
-      <c r="G3132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3133">
-      <c r="A3133" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3133" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3133" t="inlineStr"/>
-      <c r="D3133" t="inlineStr">
-        <is>
-          <t>4.173M</t>
-        </is>
-      </c>
-      <c r="E3133" t="inlineStr"/>
-      <c r="F3133" t="inlineStr"/>
-      <c r="G3133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3134">
-      <c r="A3134" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3134" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3134" t="inlineStr"/>
-      <c r="D3134" t="inlineStr">
-        <is>
-          <t>-0.815M</t>
-        </is>
-      </c>
-      <c r="E3134" t="inlineStr"/>
-      <c r="F3134" t="inlineStr"/>
-      <c r="G3134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3135">
-      <c r="A3135" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3135" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3135" t="inlineStr"/>
-      <c r="D3135" t="inlineStr">
-        <is>
-          <t>-0.846M</t>
-        </is>
-      </c>
-      <c r="E3135" t="inlineStr"/>
-      <c r="F3135" t="inlineStr"/>
-      <c r="G3135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3136">
-      <c r="A3136" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3136" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3136" t="inlineStr"/>
-      <c r="D3136" t="inlineStr">
-        <is>
-          <t>-0.157M</t>
-        </is>
-      </c>
-      <c r="E3136" t="inlineStr"/>
-      <c r="F3136" t="inlineStr"/>
-      <c r="G3136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3137">
-      <c r="A3137" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3137" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3137" t="inlineStr"/>
-      <c r="D3137" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E3137" t="inlineStr"/>
-      <c r="F3137" t="inlineStr"/>
-      <c r="G3137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3138">
-      <c r="A3138" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3138" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C3138" t="inlineStr"/>
-      <c r="D3138" t="inlineStr">
-        <is>
-          <t>4.942%</t>
-        </is>
-      </c>
-      <c r="E3138" t="inlineStr"/>
-      <c r="F3138" t="inlineStr"/>
-      <c r="G3138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3139">
-      <c r="A3139" t="inlineStr">
-        <is>
-          <t>Thursday July 24 2025</t>
-        </is>
-      </c>
-      <c r="B3139" t="inlineStr"/>
-      <c r="C3139" t="inlineStr"/>
-      <c r="D3139" t="inlineStr"/>
-      <c r="E3139" t="inlineStr"/>
-      <c r="F3139" t="inlineStr"/>
-      <c r="G3139" t="inlineStr"/>
-    </row>
-    <row r="3140">
-      <c r="A3140" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3140" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexJUN</t>
-        </is>
-      </c>
-      <c r="C3140" t="inlineStr"/>
-      <c r="D3140" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="E3140" t="inlineStr"/>
-      <c r="F3140" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
-      <c r="G3140" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3141">
-      <c r="A3141" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3141" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJUL/19</t>
-        </is>
-      </c>
-      <c r="C3141" t="inlineStr"/>
-      <c r="D3141" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E3141" t="inlineStr"/>
-      <c r="F3141" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G3141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3142">
-      <c r="A3142" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3142" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJUL/12</t>
-        </is>
-      </c>
-      <c r="C3142" t="inlineStr"/>
-      <c r="D3142" t="inlineStr">
-        <is>
-          <t>1956K</t>
-        </is>
-      </c>
-      <c r="E3142" t="inlineStr"/>
-      <c r="F3142" t="inlineStr">
-        <is>
-          <t>1952.0K</t>
-        </is>
-      </c>
-      <c r="G3142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3143">
-      <c r="A3143" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3143" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJUL/19</t>
-        </is>
-      </c>
-      <c r="C3143" t="inlineStr"/>
-      <c r="D3143" t="inlineStr">
-        <is>
-          <t>229.5K</t>
-        </is>
-      </c>
-      <c r="E3143" t="inlineStr"/>
-      <c r="F3143" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
-      <c r="G3143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3144">
-      <c r="A3144" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B3144" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C3144" t="inlineStr"/>
-      <c r="D3144" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E3144" t="inlineStr"/>
-      <c r="F3144" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="G3144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3145">
-      <c r="A3145" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B3145" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C3145" t="inlineStr"/>
-      <c r="D3145" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E3145" t="inlineStr"/>
-      <c r="F3145" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G3145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3146">
-      <c r="A3146" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B3146" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJUL</t>
-        </is>
-      </c>
-      <c r="C3146" t="inlineStr"/>
-      <c r="D3146" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E3146" t="inlineStr"/>
-      <c r="F3146" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G3146" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3147">
-      <c r="A3147" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3147" t="inlineStr">
-        <is>
-          <t>New Home SalesJUN</t>
-        </is>
-      </c>
-      <c r="C3147" t="inlineStr"/>
-      <c r="D3147" t="inlineStr">
-        <is>
-          <t>0.623M</t>
-        </is>
-      </c>
-      <c r="E3147" t="inlineStr">
-        <is>
-          <t>0.65M</t>
-        </is>
-      </c>
-      <c r="F3147" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G3147" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3148">
-      <c r="A3148" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B3148" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3148" t="inlineStr"/>
-      <c r="D3148" t="inlineStr">
-        <is>
-          <t>-13.7%</t>
-        </is>
-      </c>
-      <c r="E3148" t="inlineStr"/>
-      <c r="F3148" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G3148" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3149">
-      <c r="A3149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B3149" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/18</t>
-        </is>
-      </c>
-      <c r="C3149" t="inlineStr"/>
-      <c r="D3149" t="inlineStr">
-        <is>
-          <t>46Bcf</t>
-        </is>
-      </c>
-      <c r="E3149" t="inlineStr"/>
-      <c r="F3149" t="inlineStr"/>
-      <c r="G3149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3150">
-      <c r="A3150" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B3150" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3150" t="inlineStr"/>
-      <c r="D3150" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="E3150" t="inlineStr"/>
-      <c r="F3150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3151">
-      <c r="A3151" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B3151" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJUL</t>
-        </is>
-      </c>
-      <c r="C3151" t="inlineStr"/>
-      <c r="D3151" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E3151" t="inlineStr"/>
-      <c r="F3151" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G3151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3152">
-      <c r="A3152" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3152" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3152" t="inlineStr"/>
-      <c r="D3152" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E3152" t="inlineStr"/>
-      <c r="F3152" t="inlineStr"/>
-      <c r="G3152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3153">
-      <c r="A3153" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B3153" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C3153" t="inlineStr"/>
-      <c r="D3153" t="inlineStr">
-        <is>
-          <t>4.270%</t>
-        </is>
-      </c>
-      <c r="E3153" t="inlineStr"/>
-      <c r="F3153" t="inlineStr"/>
-      <c r="G3153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3154">
-      <c r="A3154" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3154" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C3154" t="inlineStr"/>
-      <c r="D3154" t="inlineStr">
-        <is>
-          <t>2.220%</t>
-        </is>
-      </c>
-      <c r="E3154" t="inlineStr"/>
-      <c r="F3154" t="inlineStr"/>
-      <c r="G3154" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3155">
-      <c r="A3155" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3155" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C3155" t="inlineStr"/>
-      <c r="D3155" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
-      <c r="E3155" t="inlineStr"/>
-      <c r="F3155" t="inlineStr"/>
-      <c r="G3155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3156">
-      <c r="A3156" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B3156" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJUL/24</t>
-        </is>
-      </c>
-      <c r="C3156" t="inlineStr"/>
-      <c r="D3156" t="inlineStr">
-        <is>
-          <t>6.75%</t>
-        </is>
-      </c>
-      <c r="E3156" t="inlineStr"/>
-      <c r="F3156" t="inlineStr"/>
-      <c r="G3156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3157">
-      <c r="A3157" t="inlineStr"/>
-      <c r="B3157" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJUN</t>
-        </is>
-      </c>
-      <c r="C3157" t="inlineStr"/>
-      <c r="D3157" t="inlineStr"/>
-      <c r="E3157" t="inlineStr"/>
-      <c r="F3157" t="inlineStr"/>
-      <c r="G3157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3158">
-      <c r="A3158" t="inlineStr"/>
-      <c r="B3158" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJUN</t>
-        </is>
-      </c>
-      <c r="C3158" t="inlineStr"/>
-      <c r="D3158" t="inlineStr"/>
-      <c r="E3158" t="inlineStr"/>
-      <c r="F3158" t="inlineStr"/>
-      <c r="G3158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3159">
-      <c r="A3159" t="inlineStr">
-        <is>
-          <t>Friday July 25 2025</t>
-        </is>
-      </c>
-      <c r="B3159" t="inlineStr"/>
-      <c r="C3159" t="inlineStr"/>
-      <c r="D3159" t="inlineStr"/>
-      <c r="E3159" t="inlineStr"/>
-      <c r="F3159" t="inlineStr"/>
-      <c r="G3159" t="inlineStr"/>
-    </row>
-    <row r="3160">
-      <c r="A3160" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B3160" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/23</t>
-        </is>
-      </c>
-      <c r="C3160" t="inlineStr"/>
-      <c r="D3160" t="inlineStr">
-        <is>
-          <t>$6.66T</t>
-        </is>
-      </c>
-      <c r="E3160" t="inlineStr"/>
-      <c r="F3160" t="inlineStr"/>
-      <c r="G3160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3161">
-      <c r="A3161" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3161" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3161" t="inlineStr"/>
-      <c r="D3161" t="inlineStr">
-        <is>
-          <t>16.4%</t>
-        </is>
-      </c>
-      <c r="E3161" t="inlineStr">
-        <is>
-          <t>-11%</t>
-        </is>
-      </c>
-      <c r="F3161" t="inlineStr">
-        <is>
-          <t>-9%</t>
-        </is>
-      </c>
-      <c r="G3161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3162">
-      <c r="A3162" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3162" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3162" t="inlineStr"/>
-      <c r="D3162" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E3162" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F3162" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G3162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3163">
-      <c r="A3163" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3163" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJUN</t>
-        </is>
-      </c>
-      <c r="C3163" t="inlineStr"/>
-      <c r="D3163" t="inlineStr">
-        <is>
-          <t>15.5%</t>
-        </is>
-      </c>
-      <c r="E3163" t="inlineStr"/>
-      <c r="F3163" t="inlineStr">
-        <is>
-          <t>-6%</t>
-        </is>
-      </c>
-      <c r="G3163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3164">
-      <c r="A3164" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B3164" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJUN</t>
-        </is>
-      </c>
-      <c r="C3164" t="inlineStr"/>
-      <c r="D3164" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="E3164" t="inlineStr"/>
-      <c r="F3164" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G3164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3165">
-      <c r="A3165" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3165" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C3165" t="inlineStr"/>
-      <c r="D3165" t="inlineStr"/>
-      <c r="E3165" t="inlineStr"/>
-      <c r="F3165" t="inlineStr"/>
-      <c r="G3165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3166">
-      <c r="A3166" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B3166" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/25</t>
-        </is>
-      </c>
-      <c r="C3166" t="inlineStr"/>
-      <c r="D3166" t="inlineStr"/>
-      <c r="E3166" t="inlineStr"/>
-      <c r="F3166" t="inlineStr"/>
-      <c r="G3166" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3167">
-      <c r="A3167" t="inlineStr">
-        <is>
-          <t>Sunday July 27 2025</t>
-        </is>
-      </c>
-      <c r="B3167" t="inlineStr"/>
-      <c r="C3167" t="inlineStr"/>
-      <c r="D3167" t="inlineStr"/>
-      <c r="E3167" t="inlineStr"/>
-      <c r="F3167" t="inlineStr"/>
-      <c r="G3167" t="inlineStr"/>
-    </row>
-    <row r="3168">
-      <c r="A3168" t="inlineStr">
-        <is>
-          <t>Monday July 28 2025</t>
-        </is>
-      </c>
-      <c r="B3168" t="inlineStr"/>
-      <c r="C3168" t="inlineStr"/>
-      <c r="D3168" t="inlineStr"/>
-      <c r="E3168" t="inlineStr"/>
-      <c r="F3168" t="inlineStr"/>
-      <c r="G3168" t="inlineStr"/>
+      <c r="F3116" t="inlineStr"/>
+      <c r="G3116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3186"/>
+  <dimension ref="A1:G3187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85050,7 +85050,11 @@
           <t>Michigan Consumer Sentiment PrelJUL</t>
         </is>
       </c>
-      <c r="C3117" t="inlineStr"/>
+      <c r="C3117" t="inlineStr">
+        <is>
+          <t>61.8</t>
+        </is>
+      </c>
       <c r="D3117" t="inlineStr">
         <is>
           <t>60.7</t>
@@ -85083,7 +85087,11 @@
           <t>Michigan 5 Year Inflation Expectations PrelJUL</t>
         </is>
       </c>
-      <c r="C3118" t="inlineStr"/>
+      <c r="C3118" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="D3118" t="inlineStr">
         <is>
           <t>4%</t>
@@ -85112,7 +85120,11 @@
           <t>Michigan Consumer Expectations PrelJUL</t>
         </is>
       </c>
-      <c r="C3119" t="inlineStr"/>
+      <c r="C3119" t="inlineStr">
+        <is>
+          <t>58.6</t>
+        </is>
+      </c>
       <c r="D3119" t="inlineStr">
         <is>
           <t>58.1</t>
@@ -85145,7 +85157,11 @@
           <t>Michigan Current Conditions PrelJUL</t>
         </is>
       </c>
-      <c r="C3120" t="inlineStr"/>
+      <c r="C3120" t="inlineStr">
+        <is>
+          <t>66.8</t>
+        </is>
+      </c>
       <c r="D3120" t="inlineStr">
         <is>
           <t>64.8</t>
@@ -85178,7 +85194,11 @@
           <t>Michigan Inflation Expectations PrelJUL</t>
         </is>
       </c>
-      <c r="C3121" t="inlineStr"/>
+      <c r="C3121" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="D3121" t="inlineStr">
         <is>
           <t>5%</t>
@@ -85431,10 +85451,14 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="E3132" t="inlineStr"/>
+      <c r="E3132" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="F3132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="G3132" t="inlineStr">
@@ -85463,7 +85487,7 @@
       <c r="E3133" t="inlineStr"/>
       <c r="F3133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="G3133" t="inlineStr">
@@ -86106,7 +86130,11 @@
           <t>221K</t>
         </is>
       </c>
-      <c r="E3159" t="inlineStr"/>
+      <c r="E3159" t="inlineStr">
+        <is>
+          <t>230K</t>
+        </is>
+      </c>
       <c r="F3159" t="inlineStr">
         <is>
           <t>225.0K</t>
@@ -86222,10 +86250,14 @@
           <t>52.9</t>
         </is>
       </c>
-      <c r="E3163" t="inlineStr"/>
+      <c r="E3163" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="F3163" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G3163" t="inlineStr">
@@ -86251,10 +86283,14 @@
           <t>52.9</t>
         </is>
       </c>
-      <c r="E3164" t="inlineStr"/>
+      <c r="E3164" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="F3164" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="G3164" t="inlineStr">
@@ -86466,13 +86502,13 @@
       </c>
       <c r="B3172" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>15-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C3172" t="inlineStr"/>
       <c r="D3172" t="inlineStr">
         <is>
-          <t>2.220%</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E3172" t="inlineStr"/>
@@ -86491,13 +86527,13 @@
       </c>
       <c r="B3173" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUL/24</t>
+          <t>30-Year Mortgage RateJUL/24</t>
         </is>
       </c>
       <c r="C3173" t="inlineStr"/>
       <c r="D3173" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="E3173" t="inlineStr"/>
@@ -86511,18 +86547,18 @@
     <row r="3174">
       <c r="A3174" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B3174" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUL/24</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C3174" t="inlineStr"/>
       <c r="D3174" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>2.220%</t>
         </is>
       </c>
       <c r="E3174" t="inlineStr"/>
@@ -86817,6 +86853,31 @@
       <c r="F3186" t="inlineStr"/>
       <c r="G3186" t="inlineStr"/>
     </row>
+    <row r="3187">
+      <c r="A3187" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B3187" t="inlineStr">
+        <is>
+          <t>Dallas Fed Manufacturing IndexJUL</t>
+        </is>
+      </c>
+      <c r="C3187" t="inlineStr"/>
+      <c r="D3187" t="inlineStr">
+        <is>
+          <t>-12.7</t>
+        </is>
+      </c>
+      <c r="E3187" t="inlineStr"/>
+      <c r="F3187" t="inlineStr"/>
+      <c r="G3187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3187"/>
+  <dimension ref="A1:G3191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86878,6 +86878,98 @@
         </is>
       </c>
     </row>
+    <row r="3188">
+      <c r="A3188" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B3188" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C3188" t="inlineStr"/>
+      <c r="D3188" t="inlineStr"/>
+      <c r="E3188" t="inlineStr"/>
+      <c r="F3188" t="inlineStr"/>
+      <c r="G3188" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B3189" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C3189" t="inlineStr"/>
+      <c r="D3189" t="inlineStr"/>
+      <c r="E3189" t="inlineStr"/>
+      <c r="F3189" t="inlineStr"/>
+      <c r="G3189" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B3190" t="inlineStr">
+        <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C3190" t="inlineStr"/>
+      <c r="D3190" t="inlineStr">
+        <is>
+          <t>3.786%</t>
+        </is>
+      </c>
+      <c r="E3190" t="inlineStr"/>
+      <c r="F3190" t="inlineStr"/>
+      <c r="G3190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B3191" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C3191" t="inlineStr"/>
+      <c r="D3191" t="inlineStr">
+        <is>
+          <t>3.879%</t>
+        </is>
+      </c>
+      <c r="E3191" t="inlineStr"/>
+      <c r="F3191" t="inlineStr"/>
+      <c r="G3191" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-28.xlsx
@@ -85227,7 +85227,11 @@
           <t>Baker Hughes Oil Rig CountJUL/18</t>
         </is>
       </c>
-      <c r="C3122" t="inlineStr"/>
+      <c r="C3122" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="D3122" t="inlineStr">
         <is>
           <t>424</t>
@@ -85252,7 +85256,11 @@
           <t>Baker Hughes Total Rigs CountJUL/18</t>
         </is>
       </c>
-      <c r="C3123" t="inlineStr"/>
+      <c r="C3123" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
       <c r="D3123" t="inlineStr">
         <is>
           <t>537</t>
@@ -86797,7 +86805,11 @@
         </is>
       </c>
       <c r="C3183" t="inlineStr"/>
-      <c r="D3183" t="inlineStr"/>
+      <c r="D3183" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
       <c r="E3183" t="inlineStr"/>
       <c r="F3183" t="inlineStr"/>
       <c r="G3183" t="inlineStr">
@@ -86818,7 +86830,11 @@
         </is>
       </c>
       <c r="C3184" t="inlineStr"/>
-      <c r="D3184" t="inlineStr"/>
+      <c r="D3184" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
       <c r="E3184" t="inlineStr"/>
       <c r="F3184" t="inlineStr"/>
       <c r="G3184" t="inlineStr">
